--- a/To Be Modeled/Home Depot.xlsx
+++ b/To Be Modeled/Home Depot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2747959-F59E-1D49-AA17-9E951F801661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FD470C-1050-6046-BBCD-F89CAA9D9000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2643,8 +2643,8 @@
     <v>347.25</v>
     <v>265.61</v>
     <v>0.93659999999999999</v>
-    <v>-0.20499999999999999</v>
-    <v>-6.8070000000000001E-4</v>
+    <v>-1.375</v>
+    <v>-4.5650000000000005E-3</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. It offers its customers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair and operations products and provides a number of services, including home improvement installation services and tool and equipment rental. It operates over 2,322 stores located throughout the United States, including the Commonwealth of Puerto Rico and the territories of the United States Virgin Islands and Guam; Canada, and Mexico. It serves two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include homeowners who purchase products and complete their own projects and installations. Pros are primarily professional renovators/remodelers, general contractors, maintenance professionals, handymen, property managers, building service contractors and specialty tradespeople, such as electricians, plumbers and painters.</v>
     <v>471600</v>
@@ -2655,20 +2655,20 @@
     <v>302.315</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45100.746041110935</v>
+    <v>45100.778907210159</v>
     <v>0</v>
     <v>299.10000000000002</v>
-    <v>302593041600</v>
+    <v>301416751680</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>300.02</v>
     <v>18.3416</v>
     <v>301.18</v>
-    <v>300.97500000000002</v>
+    <v>299.80500000000001</v>
     <v>1005376000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>1298512</v>
+    <v>1498525</v>
     <v>5128949</v>
     <v>1978</v>
   </rv>
@@ -3240,7 +3240,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO9" sqref="AO9"/>
+      <selection pane="topRight" activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5459,15 +5459,15 @@
       </c>
       <c r="AT16" s="36">
         <f>AU101/AM3</f>
-        <v>1.9224096211635102</v>
+        <v>1.9149365112481973</v>
       </c>
       <c r="AU16" s="36">
         <f>AU101/AM28</f>
-        <v>17.690326898567669</v>
+        <v>17.621558122186496</v>
       </c>
       <c r="AV16" s="37">
         <f>AU101/AM107</f>
-        <v>26.321593736951982</v>
+        <v>26.219272066805846</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="AT19" s="36">
         <f>AU101/AN3</f>
-        <v>1.9907436947368422</v>
+        <v>1.983004945263158</v>
       </c>
       <c r="AU19" s="36">
         <f>AU101/AN28</f>
-        <v>20.154058984947383</v>
+        <v>20.075712780071932</v>
       </c>
       <c r="AV19" s="37">
         <f>AU101/AN106</f>
-        <v>18.331195347428363</v>
+        <v>18.259935280789968</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6309,11 +6309,11 @@
       </c>
       <c r="AU22" s="41">
         <f>(-1*AM98)/AU101</f>
-        <v>2.5740843076941397E-2</v>
+        <v>2.5841297660420731E-2</v>
       </c>
       <c r="AV22" s="42">
         <f>AM107/AU101</f>
-        <v>3.7991620492042404E-2</v>
+        <v>3.8139884183360728E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="AU100" s="47">
         <f>AU99/AU103</f>
-        <v>0.14269158584198649</v>
+        <v>0.14316872017436016</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="AU101" s="52" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>302593041600</v>
+        <v>301416751680</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="AU102" s="47">
         <f>AU101/AU103</f>
-        <v>0.85730841415801351</v>
+        <v>0.85683127982563978</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16302,7 +16302,7 @@
       </c>
       <c r="AU103" s="53">
         <f>AU99+AU101</f>
-        <v>352957041600</v>
+        <v>351780751680</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="AU105" s="32">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.2958165843243938E-2</v>
+        <v>7.2931159129182604E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16914,7 +16914,7 @@
       <c r="AQ107" s="27"/>
       <c r="AR107" s="54">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>312723060440.20154</v>
+        <v>312868847653.86426</v>
       </c>
       <c r="AS107" s="55" t="s">
         <v>155</v>
@@ -16984,7 +16984,7 @@
       </c>
       <c r="AR108" s="54">
         <f>AR107+AR106</f>
-        <v>330580060440.20154</v>
+        <v>330725847653.86426</v>
       </c>
       <c r="AS108" s="55" t="s">
         <v>153</v>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="AU108" s="59">
         <f>AU105</f>
-        <v>7.2958165843243938E-2</v>
+        <v>7.2931159129182604E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="AO110" s="52">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>289645624590.16479</v>
+        <v>289780920900.95209</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="AO113" s="52">
         <f>AO110+AO111-AO112</f>
-        <v>241624624590.16479</v>
+        <v>241759920900.95209</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="AO115" s="63">
         <f>AO113/AO114</f>
-        <v>274.72501690498018</v>
+        <v>274.87884758896473</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="AO116" s="64" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>300.97500000000002</v>
+        <v>299.80500000000001</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17072,7 +17072,7 @@
       </c>
       <c r="AO117" s="66">
         <f>AO115/AO116-1</f>
-        <v>-8.7216490057379636E-2</v>
+        <v>-8.3141216494172165E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
